--- a/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.4435263151058383</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4221086090719773</v>
+        <v>0.4221086090719772</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3307666518949079</v>
+        <v>0.3345260275450243</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3726009195400504</v>
+        <v>0.3696049257383844</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3720139680828162</v>
+        <v>0.3739782700477486</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4805502265393121</v>
+        <v>0.4839448824111097</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.513174553399145</v>
+        <v>0.5108966594424209</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4755700554873723</v>
+        <v>0.4785420625698385</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.4355340854616843</v>
+        <v>0.4355340854616844</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.3750262100702982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4045121515153306</v>
+        <v>0.4045121515153305</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3773538748055186</v>
+        <v>0.379757460043213</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3307474472906424</v>
+        <v>0.3339238903988619</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3685018680062396</v>
+        <v>0.3684810616451564</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.492517999112079</v>
+        <v>0.4998447513210256</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4237276958031886</v>
+        <v>0.4207415889668699</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4394939236740097</v>
+        <v>0.4412267424497936</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.3591456431350524</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3722408278996521</v>
+        <v>0.372240827899652</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3473939806032453</v>
+        <v>0.3417176759219729</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3271631272809208</v>
+        <v>0.3262332303728102</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3471998408123483</v>
+        <v>0.3447746900280538</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4258629885906497</v>
+        <v>0.4320847888493992</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3921343952745895</v>
+        <v>0.3907380032504257</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3982097438187085</v>
+        <v>0.3951641944720404</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.4401717685901358</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4147899407487284</v>
+        <v>0.4147899407487285</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.350231965551989</v>
+        <v>0.3520920372482277</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4108190623825814</v>
+        <v>0.4117090362182489</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3880520704321156</v>
+        <v>0.3913192862277055</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4260779778672416</v>
+        <v>0.4291516520284532</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4699676292112966</v>
+        <v>0.4684257497870449</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4370534497927063</v>
+        <v>0.4378798283636784</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.4058007828860121</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.4518167556986478</v>
+        <v>0.4518167556986479</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.4287994950315562</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3699015097784866</v>
+        <v>0.3686893303807932</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4210438474249653</v>
+        <v>0.4214851928435063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4053014213081497</v>
+        <v>0.4037356378820069</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4457140211704569</v>
+        <v>0.4431706992138507</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4845005499657586</v>
+        <v>0.4838662477625182</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4532874619933967</v>
+        <v>0.4528061095938974</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.4273045289756204</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.4023394692518028</v>
+        <v>0.4023394692518027</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.4143487085888474</v>
+        <v>0.4143487085888475</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3907005339256266</v>
+        <v>0.3879700714151954</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3683819708929236</v>
+        <v>0.3730812194852886</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3860173705228078</v>
+        <v>0.3882765102902145</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4733219174795648</v>
+        <v>0.4663641055408518</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4337109769093492</v>
+        <v>0.4372623667549601</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4419433144852958</v>
+        <v>0.4420812180499825</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.4418179485469792</v>
+        <v>0.4418179485469793</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4123726611621755</v>
+        <v>0.4123726611621754</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4241612433372234</v>
+        <v>0.4241612433372233</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.392518114411096</v>
+        <v>0.3934256989911384</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3807083660149585</v>
+        <v>0.3754277547684816</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.396245593273346</v>
+        <v>0.3969790357482936</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4883871502875219</v>
+        <v>0.4870813187607867</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4473715138459358</v>
+        <v>0.4471596232771586</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4513344946618041</v>
+        <v>0.4509308039227354</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         <v>0.4080403241113238</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.4122333133974437</v>
+        <v>0.4122333133974438</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.4101957052322419</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3901073527470103</v>
+        <v>0.3910085410931284</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3977018088163591</v>
+        <v>0.3980228111525564</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3991001247226397</v>
+        <v>0.3990838728883068</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4263322687827732</v>
+        <v>0.4256956801310873</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4259785805983489</v>
+        <v>0.427565878328287</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4221968409314865</v>
+        <v>0.4234304688467354</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>134884</v>
+        <v>136417</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>135072</v>
+        <v>133986</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>286564</v>
+        <v>288077</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>195965</v>
+        <v>197349</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>186032</v>
+        <v>185206</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>366334</v>
+        <v>368623</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>179956</v>
+        <v>181103</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>165947</v>
+        <v>167541</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>360624</v>
+        <v>360604</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>234877</v>
+        <v>238371</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>212598</v>
+        <v>211100</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>430099</v>
+        <v>431795</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>215675</v>
+        <v>212151</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>203886</v>
+        <v>203306</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>431927</v>
+        <v>428910</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>264392</v>
+        <v>268254</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>244375</v>
+        <v>243505</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>495384</v>
+        <v>491596</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>245378</v>
+        <v>246682</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>302727</v>
+        <v>303383</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>557826</v>
+        <v>562523</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>298517</v>
+        <v>300671</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>346313</v>
+        <v>345176</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>628266</v>
+        <v>629454</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>225398</v>
+        <v>224659</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>256355</v>
+        <v>256623</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>493739</v>
+        <v>491832</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>271594</v>
+        <v>270044</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>294991</v>
+        <v>294604</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>552196</v>
+        <v>551609</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>159046</v>
+        <v>157935</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>161781</v>
+        <v>163845</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>326666</v>
+        <v>328577</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>192680</v>
+        <v>189848</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>190471</v>
+        <v>192031</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>373993</v>
+        <v>374109</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>121758</v>
+        <v>122040</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>176881</v>
+        <v>174427</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>307014</v>
+        <v>307582</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>151497</v>
+        <v>151092</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>207853</v>
+        <v>207754</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>349697</v>
+        <v>349384</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1378156</v>
+        <v>1381340</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1486193</v>
+        <v>1487393</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2901345</v>
+        <v>2901226</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1506130</v>
+        <v>1503882</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1591862</v>
+        <v>1597794</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>3069251</v>
+        <v>3078219</v>
       </c>
     </row>
     <row r="36">
